--- a/data/TC083.xlsx
+++ b/data/TC083.xlsx
@@ -16,12 +16,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>cutomerLastName</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Vignesh</t>
+  </si>
+  <si>
+    <t>customerFirstName</t>
+  </si>
+  <si>
+    <t>customerLastName</t>
+  </si>
+  <si>
+    <t>customerMobile</t>
+  </si>
+  <si>
+    <t>customerPassword</t>
+  </si>
+  <si>
+    <t>customerAdd1</t>
+  </si>
+  <si>
+    <t>customerAdd2</t>
+  </si>
+  <si>
+    <t>customerCountry</t>
+  </si>
+  <si>
+    <t>ChangedName</t>
+  </si>
+  <si>
+    <t>changed</t>
+  </si>
+  <si>
+    <t>ChangedAddress</t>
+  </si>
+  <si>
+    <t>changedAddress</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>9876543210</t>
   </si>
 </sst>
 </file>
@@ -57,8 +93,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -353,25 +390,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
